--- a/数据整理/stocks/A股/上证主板/601311-骆驼股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601311-骆驼股份.xlsx
@@ -451,379 +451,509 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>001887</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>中欧价值智选回报混合E</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>92.55</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.24</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>166019</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>中欧价值智选回报混合A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>92.55</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.24</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>001678</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>英大国企改革主题股票</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>91.00</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>6.34</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001607</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>英大策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>93.80</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>6.35</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001608</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>英大策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004235</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002453</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>九泰久稳灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>81.41</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>3.48</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002454</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>九泰久稳灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003446</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003447</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003713</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003714</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -833,7 +963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,15 +984,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003345</t>
+          <t>166019</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信新成长灵活配置混合A</t>
+          <t>中欧价值智选回报混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.87</t>
+          <t>38.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3370</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003346</t>
+          <t>169102</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信新成长灵活配置混合C</t>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.87</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6452</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003446</t>
+          <t>004235</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>英大睿鑫灵活配置混合A</t>
+          <t>中欧价值智选回报混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.53</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2021</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003447</t>
+          <t>008185</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>英大睿鑫灵活配置混合C</t>
+          <t>诺安研究优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.53</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -986,25 +1166,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003713</t>
+          <t>001887</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合A</t>
+          <t>中欧价值智选回报混合E</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.60</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003714</t>
+          <t>003713</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合C</t>
+          <t>英大睿盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>88.60</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.47</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001887</t>
+          <t>003714</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合E</t>
+          <t>英大睿盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>166019</t>
+          <t>003345</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合A</t>
+          <t>安信新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>7.38</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004235</t>
+          <t>003446</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合C</t>
+          <t>英大睿鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>169102</t>
+          <t>001607</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方红睿阳三年定期开放灵活配置混合</t>
+          <t>英大策略优选混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.25</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>003447</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
+          <t>英大睿鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>80.42</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004393</t>
+          <t>001678</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
+          <t>英大国企改革主题股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>76.71</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1220,15 +1480,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>41.79</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>4.93</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008438</t>
+          <t>004249</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合C</t>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>41.79</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>000892</t>
+          <t>004393</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>九泰天宝灵活配置混合A</t>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>68.13</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002028</t>
+          <t>003346</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>九泰天宝灵活配置混合C</t>
+          <t>安信新成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>68.13</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001607</t>
+          <t>008438</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>英大策略优选混合A</t>
+          <t>九泰行业优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
+          <t>41.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001608</t>
+          <t>002453</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>英大策略优选混合C</t>
+          <t>九泰久稳灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001678</t>
+          <t>750005</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>英大国企改革主题股票</t>
+          <t>安信平稳增长混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+          <t>53.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>750005</t>
+          <t>000892</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>安信平稳增长混合A</t>
+          <t>九泰天宝灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>53.58</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>002035</t>
+          <t>001608</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>安信平稳增长混合C</t>
+          <t>英大策略优选混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>53.58</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1462,25 +1812,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002453</t>
+          <t>002454</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>九泰久稳灵活配置混合A</t>
+          <t>九泰久稳灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>79.89</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>3.41</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002454</t>
+          <t>002035</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>九泰久稳灵活配置混合C</t>
+          <t>安信平稳增长混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>79.89</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
+          <t>53.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1518,26 +1888,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>008185</t>
+          <t>002028</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>诺安研究优选混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>8</v>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601311-骆驼股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601311-骆驼股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1896,7 +1897,6 @@
           <t>九泰天宝灵活配置混合C</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>68.13</t>
@@ -1912,6 +1912,670 @@
       </c>
       <c r="H25" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4368</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6261</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601311-骆驼股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601311-骆驼股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2581,4 +2582,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商信用增强债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001752</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商信用增强债券C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601311-骆驼股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601311-骆驼股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3132,4 +3133,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601311-骆驼股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601311-骆驼股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3141,7 +3142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3152,17 +3153,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3172,14 +3193,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.41</v>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3336</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3188,14 +3231,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.7</v>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8901</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3204,14 +3269,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.97</v>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1952</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3220,13 +3307,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.89</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601311-骆驼股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601311-骆驼股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3426,7 +3427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3437,17 +3438,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3457,14 +3478,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.53</v>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3473,14 +3516,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.41</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="4">
@@ -3489,14 +3622,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>3.7</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="5">
@@ -3505,14 +3638,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>2.97</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6">
@@ -3521,13 +3654,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.89</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601311-骆驼股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601311-骆驼股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3559,7 +3560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3570,17 +3571,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3590,14 +3611,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.31</v>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3004</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3606,14 +3649,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.53</v>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3622,14 +3687,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.41</v>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3638,14 +3725,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.7</v>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3654,14 +3763,152 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>2.97</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7">
@@ -3670,13 +3917,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.89</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601311-骆驼股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601311-骆驼股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.46</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.31</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>3.53</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>2.41</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>3.7</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>2.97</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.89</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001257</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5058</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001258</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -845,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -977,7 +1202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1261,7 +1486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1811,7 +2036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2475,7 +2700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3436,7 +3661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601311-骆驼股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601311-骆驼股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.88</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.46</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.31</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>3.53</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>2.41</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>3.7</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>2.97</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,542 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>12</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1146,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -824,7 +1485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1070,7 +1731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1202,7 +1863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1486,7 +2147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2036,7 +2697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2700,7 +3361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3659,516 +4320,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004235</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1876</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001887</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合E</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1776</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>166019</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1776</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003713</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0789</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003714</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0697</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001607</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>英大策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0578</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003447</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0443</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003446</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0431</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001678</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>英大国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0425</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002453</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>九泰久稳灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001608</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>英大策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002454</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>九泰久稳灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>